--- a/biology/Biologie cellulaire et moléculaire/Facteur_d'initiation/Facteur_d'initiation.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Facteur_d'initiation/Facteur_d'initiation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteur_d%27initiation</t>
+          <t>Facteur_d'initiation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les « facteurs d'initiation » ou facteurs de démarrage , souvent désignés sous l'acronyme anglais IF, sont des protéines qui assistent le ribosome pour le démarrage de la traduction de l'ARNm en protéines. Cette étape est cruciale, car c'est elle qui permet à la machinerie cellulaire de reconnaître le bon codon de démarrage et de se caler ainsi sur le message à traduire. Le démarrage ne fait intervenir que la petite sous-unité du ribosome, 30S chez les procaryotes et 40S chez les eucaryotes, et permet la formation du complexe ternaire entre cette sous-unité ribosomique, l'ARN messager et l'ARN de transfert de démarrage sur le premier codon du gène. Lors de cette étape, l'ARNt se fixe au site P du ribosome et non pas au site A, comme lors des phases ultérieures d'élongation de la traduction. Les facteurs d'initiation sont essentiels à cet assemblage et sont associés au ribosome pendant tout le processus. Une fois le complexe ternaire formé, la grande sous-unité du ribosome (50S chez les procaryotes, 60S chez les eucaryotes) est recrutée et les facteurs de démarrage se dissocient. La phase d'élongation de la chaîne protéique peut démarrer.
 Les détails du mécanisme de démarrage sont sensiblement différents chez les procaryotes, d'une part, et les eucaryotes et les archées, d'autre part. En conséquence, les facteurs de démarrages sont assez différents dans ces différents domaines du vivant.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteur_d%27initiation</t>
+          <t>Facteur_d'initiation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sémantique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dénomination « facteur d'initiation » est un abus de traduction, dérivé de l'anglais initiation factor, mais passé dans l'usage courant du fait de la nomenclature en « IF » ou « eIF ». Initiation en anglais dans ce contexte signifie début ou démarrage, tandis que le terme français n'a pas le même sens qu'en anglais (voir l'article Initiation). La dénomination correcte serait « facteur de démarrage ».[réf. nécessaire] De la même manière, on parle, de préférence, de "démarrage de la traduction" et non de "l'initiation de la traduction", qui lui est un anglicisme.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facteur_d%27initiation</t>
+          <t>Facteur_d'initiation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Procaryotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les procaryotes ou bactéries, on a identifié trois facteurs qui s'associent à la petite sous-unité 30S du ribosome lors de la formation du complexe de démarrage de la traduction. On les a dénommés IF1, IF2 et IF3.
 Ces facteurs fonctionnent suivant le schéma suivant : 
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facteur_d%27initiation</t>
+          <t>Facteur_d'initiation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Eucaryotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chez les eucaryotes, les facteurs d'initiation sont : eIF1, eIF1A, eIF2, eIF3, eIF4A, eIF4B, eIF4E, eIF4G et eIF5. Par ailleurs, PABP, la protéine qui fixe la queue poly(A) (poly(A)-binding protein) participe également à la formation du complexe de démarrage avec la sous-unité 40S du ribosome.
 Les rôles des principaux facteurs sont :
